--- a/biology/Médecine/Josef_Nesvadba/Josef_Nesvadba.xlsx
+++ b/biology/Médecine/Josef_Nesvadba/Josef_Nesvadba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Nesvadba , né le 19 juin 1926 à Prague et mort le 26 avril 2005 (à 78 ans) à Prague, est un écrivain, un traducteur et un médecin-psychiatre tchèque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'enseignants, il suit des cours dans un lycée anglais, puis fait des études pour devenir psychiatre. Sa connaissance de l'anglais lui permet de travailler aussi comme traducteur. Il écrit des scénarios pour le cinéma, tout en travaillant comme psychiatre à Teplice.
 Il a écrit plusieurs pièces de théâtre, dont Budou žít, sur l'Occupation. Il a écrit des livres de science-fiction, comprenant parfois des motifs autobiographiques, comme Tajná zpráva z Prahy. Il reprend le personnage du capitaine Nemo dans un de ses recueils de nouvelles.
@@ -546,32 +560,139 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pièces de théâtre
-Výprava do Oceánie, écrit en 1949, créé en 1950
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Výprava do Oceánie, écrit en 1949, créé en 1950
 Ocelový kruh
 Ráno, créé en 1948
 Budou žít, créé en 1949
 Svárov, 1950
 Tři podpisy, 1954
 Zásnuby barona Liebiga, créé en 1956
-Mimořádná událost, 1956
-Recueils de nouvelles
-Tarzanova smrt, 1958.
+Mimořádná událost, 1956</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Josef_Nesvadba</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josef_Nesvadba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tarzanova smrt, 1958.
 Einsteinův mozek, 1960 (contient les nouvelles Einsteinův mozek, Blbec z Xeenemünde, Poslední cesta kapitána Nema, Vynález proti sobě et Ztracená tvář). Traduction : Le cerveau d'Einstein, les Éditeurs français réunis, 1964.
 Výprava opačným směrem, 1962 (contient les nouvelles Výprava opačným směrem, Upír ltd., Jak zemřel kapitán Nemo, Druhý ostrov dr. Moreaua et Anděl posledního soudu)
 Poslední cesty kapitána Nema, 1966
 Tři dobrodružství, 1972.
 Minehava podruhé, 1981
-Řidičský průkaz rodičů, 198
-Romans
-Dialog s doktorem Dongem, 1964
+Řidičský průkaz rodičů, 198</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Josef_Nesvadba</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josef_Nesvadba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dialog s doktorem Dongem, 1964
 Bludy Erika N., 1974
 Tajná zpráva z Prahy, 1978
 Hledám za manžela muže, 1986
 Peklo Beneš, 2002
-Hledám za manžela muže, 1986
-Scénarios de films
-Blbec z Xeenemünde, 1962
+Hledám za manžela muže, 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Josef_Nesvadba</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josef_Nesvadba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scénarios de films</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Blbec z Xeenemünde, 1962
 Tarzanova smrt, 1962
 Ztracená tvář, 1965
 Zabil jsem Einsteina, pánové, 1969
@@ -585,31 +706,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Josef_Nesvadba</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Josef_Nesvadba</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Liste d'auteurs de science-fiction</t>
         </is>
